--- a/rg/a16design/socalleddesign.xlsx
+++ b/rg/a16design/socalleddesign.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\a01aXessacademy\rg\a16design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470D7D1-29E3-40AB-8CAC-574CFD15EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BCD129-93A9-438E-B4E5-76B504DA4AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="288" windowWidth="23232" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Scneario ( do all the story telling you want)</t>
   </si>
@@ -39,9 +39,6 @@
     <t>return type and data type</t>
   </si>
   <si>
-    <t>how will you failure and success</t>
-  </si>
-  <si>
     <t>if we are using models what the values indicate</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>negative scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use case story </t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>how will you know failure and success, http status codes</t>
   </si>
 </sst>
 </file>
@@ -312,72 +318,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="51.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
+    <row r="4" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
